--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D9952-001E-4FA9-AB30-06186A35E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB57293-FE79-4926-9856-249E3312A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -209,24 +209,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>株式会社○○</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2017BAH000X011</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>山田　太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -244,19 +227,26 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田 太郎</t>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2017BAH000X011-002</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>山田 太郎</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>鈴木崇志</t>
+    <rPh sb="0" eb="4">
+      <t>スズキタカユキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>株式会社XYZ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -967,11 +957,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1009,63 +1059,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,10 +1085,23 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,26 +1170,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1403,7 +1393,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>main.html</a:t>
+            <a:t>main</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1501,7 +1491,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>searchResult.html</a:t>
+            <a:t>searchResult</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1668,7 +1658,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>ショッピングカート一覧画面</a:t>
+            <a:t>カート内一覧画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1690,7 +1680,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>cart.html</a:t>
+            <a:t>cart</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1856,7 +1846,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>login.html</a:t>
+            <a:t>login</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2248,7 +2238,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>registrationChangeConfirmation</a:t>
+            <a:t>registrationChangeConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2466,8 +2456,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>16212</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -2486,8 +2476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5341620" y="4968240"/>
-          <a:ext cx="1767840" cy="403860"/>
+          <a:off x="5631991" y="5001638"/>
+          <a:ext cx="1850200" cy="404347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2542,7 +2532,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchaseHistoryCancel</a:t>
+            <a:t>purchaseHistoryCancelComfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2836,7 +2826,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>registrationConfirmation</a:t>
+            <a:t>registrationConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -3560,8 +3550,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>24319</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
@@ -3569,7 +3559,7 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:rowOff>81064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3585,9 +3575,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7112000" y="5217160"/>
-          <a:ext cx="335280" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="7490298" y="5202460"/>
+          <a:ext cx="284048" cy="9944"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5166,7 +5156,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchaseConfirmation</a:t>
+            <a:t>purchaseConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -6270,6 +6260,9 @@
           </a:pathLst>
         </a:custGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -7619,25 +7612,20 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7728,25 +7716,20 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7837,217 +7820,20 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>178341</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>113490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>178341</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8106</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="フリーフォーム: 図形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DE3EEB-54D2-4828-81EC-8B20E2884E66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5966298" y="2407596"/>
-          <a:ext cx="0" cy="202659"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 202659"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
-            <a:gd name="connsiteY1" fmla="*/ 202659 h 202659"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path h="202659">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="202659"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>48638</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105383</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="フリーフォーム: 図形 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64122FE6-35B7-440E-97C3-62B9DD060FB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3964021" y="2423809"/>
-          <a:ext cx="1823936" cy="129702"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1823936"/>
-            <a:gd name="connsiteY0" fmla="*/ 129702 h 129702"/>
-            <a:gd name="connsiteX1" fmla="*/ 1823936 w 1823936"/>
-            <a:gd name="connsiteY1" fmla="*/ 129702 h 129702"/>
-            <a:gd name="connsiteX2" fmla="*/ 1823936 w 1823936"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 129702"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1823936" h="129702">
-              <a:moveTo>
-                <a:pt x="0" y="129702"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1823936" y="129702"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1823936" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -8122,29 +7908,25 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
@@ -8214,29 +7996,25 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
@@ -8306,29 +8084,25 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
@@ -8406,29 +8180,25 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
@@ -8506,29 +8276,25 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
@@ -8606,6 +8372,161 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121596</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8621CF-6335-469B-90E9-B3D9C702DE2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5155660" y="2407596"/>
+          <a:ext cx="1014" cy="412709"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129702</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>121595</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フリーフォーム: 図形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBDBE1D-7079-4CAD-A89F-12109A6F6FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5163766" y="2772383"/>
+          <a:ext cx="1491574" cy="81064"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1491574 w 1491574"/>
+            <a:gd name="connsiteY0" fmla="*/ 81064 h 81064"/>
+            <a:gd name="connsiteX1" fmla="*/ 1491574 w 1491574"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 81064"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 1491574"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 81064"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1491574" h="81064">
+              <a:moveTo>
+                <a:pt x="1491574" y="81064"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1491574" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
         <a:noFill/>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -8638,6 +8559,557 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>89170</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>72957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89170</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="フリーフォーム: 図形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBBB092-185A-40A2-8124-E4D7F8639FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3445213" y="1272702"/>
+          <a:ext cx="372893" cy="1329447"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 372893 w 372893"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1329447"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 372893"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1329447"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 372893"/>
+            <a:gd name="connsiteY2" fmla="*/ 1329447 h 1329447"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="372893" h="1329447">
+              <a:moveTo>
+                <a:pt x="372893" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1329447"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>129702</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フリーフォーム: 図形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5007D622-A325-4599-959B-9C37FABB21A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2610255" y="2415702"/>
+          <a:ext cx="3493851" cy="137809"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3493851"/>
+            <a:gd name="connsiteY0" fmla="*/ 137809 h 137809"/>
+            <a:gd name="connsiteX1" fmla="*/ 3493851 w 3493851"/>
+            <a:gd name="connsiteY1" fmla="*/ 137809 h 137809"/>
+            <a:gd name="connsiteX2" fmla="*/ 3493851 w 3493851"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 137809"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3493851" h="137809">
+              <a:moveTo>
+                <a:pt x="0" y="137809"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3493851" y="137809"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3493851" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129703</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フリーフォーム: 図形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF51EA84-CC11-4C19-9F51-C755DF1BC288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3972128" y="2399489"/>
+          <a:ext cx="1945532" cy="113490"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1945532"/>
+            <a:gd name="connsiteY0" fmla="*/ 113490 h 113490"/>
+            <a:gd name="connsiteX1" fmla="*/ 1945532 w 1945532"/>
+            <a:gd name="connsiteY1" fmla="*/ 113490 h 113490"/>
+            <a:gd name="connsiteX2" fmla="*/ 1945532 w 1945532"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 113490"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1945532" h="113490">
+              <a:moveTo>
+                <a:pt x="0" y="113490"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1945532" y="113490"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1945532" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56744</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>97276</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5153D26-7390-4777-8F52-9DB0D79F22F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="5277255" y="3858638"/>
+          <a:ext cx="421532" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170235</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4415F9F-7CDD-41EC-AE94-9D8BBE524EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3153384" y="4636851"/>
+          <a:ext cx="632297" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129702</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129702</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フリーフォーム: 図形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19134413-E4DF-4945-9F40-C232723DC6D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5163766" y="5544766"/>
+          <a:ext cx="0" cy="162128"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY0" fmla="*/ 162128 h 162128"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 162128"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path h="162128">
+              <a:moveTo>
+                <a:pt x="0" y="162128"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56744</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38912</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA042B2-2B4C-4B4E-8FB3-CE3411D01320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="5277255" y="5332378"/>
+          <a:ext cx="363168" cy="1622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12277,7 +12749,7 @@
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -12471,25 +12943,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="53" t="s">
-        <v>24</v>
+      <c r="B3" s="50" t="s">
+        <v>30</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="55" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -12505,49 +12977,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="52" t="s">
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -12563,26 +13035,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -13188,44 +13660,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="58"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -13244,42 +13716,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="62"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="61"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -13298,42 +13770,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="62"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="61"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -13352,42 +13824,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="62"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="61"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -13406,42 +13878,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="62"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="61"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -13460,42 +13932,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="62"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="61"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -13514,42 +13986,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="62"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="61"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -13568,42 +14040,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61"/>
-      <c r="AN23" s="61"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="62"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="61"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -13622,42 +14094,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="62"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="61"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -13676,42 +14148,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="62"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="61"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -13730,42 +14202,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="62"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="60"/>
+      <c r="AR26" s="61"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -13784,42 +14256,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="62"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="60"/>
+      <c r="AQ27" s="60"/>
+      <c r="AR27" s="61"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -13838,42 +14310,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="61"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -13892,42 +14364,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="65"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="64"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -14699,30 +15171,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="39" t="s">
+      <c r="AF45" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="52" t="s">
-        <v>25</v>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="54"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54"/>
+      <c r="AL45" s="55" t="s">
+        <v>24</v>
       </c>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="52"/>
-      <c r="AP45" s="52"/>
-      <c r="AQ45" s="52"/>
-      <c r="AR45" s="52"/>
-      <c r="AS45" s="52"/>
-      <c r="AT45" s="52"/>
-      <c r="AU45" s="52"/>
-      <c r="AV45" s="52"/>
-      <c r="AW45" s="52"/>
-      <c r="AX45" s="52"/>
-      <c r="AY45" s="52"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="55"/>
+      <c r="AP45" s="55"/>
+      <c r="AQ45" s="55"/>
+      <c r="AR45" s="55"/>
+      <c r="AS45" s="55"/>
+      <c r="AT45" s="55"/>
+      <c r="AU45" s="55"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="55"/>
+      <c r="AX45" s="55"/>
+      <c r="AY45" s="55"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -14757,26 +15229,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="52"/>
-      <c r="AX46" s="52"/>
-      <c r="AY46" s="52"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+      <c r="AJ46" s="54"/>
+      <c r="AK46" s="54"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
+      <c r="AP46" s="55"/>
+      <c r="AQ46" s="55"/>
+      <c r="AR46" s="55"/>
+      <c r="AS46" s="55"/>
+      <c r="AT46" s="55"/>
+      <c r="AU46" s="55"/>
+      <c r="AV46" s="55"/>
+      <c r="AW46" s="55"/>
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="55"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -14811,30 +15283,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="39" t="s">
+      <c r="AF47" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="38">
-        <v>42887</v>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="65">
+        <v>45553</v>
       </c>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
+      <c r="AM47" s="65"/>
+      <c r="AN47" s="65"/>
+      <c r="AO47" s="65"/>
+      <c r="AP47" s="65"/>
+      <c r="AQ47" s="65"/>
+      <c r="AR47" s="65"/>
+      <c r="AS47" s="65"/>
+      <c r="AT47" s="65"/>
+      <c r="AU47" s="65"/>
+      <c r="AV47" s="65"/>
+      <c r="AW47" s="65"/>
+      <c r="AX47" s="65"/>
+      <c r="AY47" s="65"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -14869,26 +15341,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="54"/>
+      <c r="AI48" s="54"/>
+      <c r="AJ48" s="54"/>
+      <c r="AK48" s="54"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="65"/>
+      <c r="AN48" s="65"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
+      <c r="AR48" s="65"/>
+      <c r="AS48" s="65"/>
+      <c r="AT48" s="65"/>
+      <c r="AU48" s="65"/>
+      <c r="AV48" s="65"/>
+      <c r="AW48" s="65"/>
+      <c r="AX48" s="65"/>
+      <c r="AY48" s="65"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -14923,30 +15395,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="40" t="s">
+      <c r="AF49" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="46" t="s">
-        <v>26</v>
+      <c r="AG49" s="67"/>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="68"/>
+      <c r="AL49" s="72" t="s">
+        <v>29</v>
       </c>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="48"/>
+      <c r="AM49" s="73"/>
+      <c r="AN49" s="73"/>
+      <c r="AO49" s="73"/>
+      <c r="AP49" s="73"/>
+      <c r="AQ49" s="73"/>
+      <c r="AR49" s="73"/>
+      <c r="AS49" s="73"/>
+      <c r="AT49" s="73"/>
+      <c r="AU49" s="73"/>
+      <c r="AV49" s="73"/>
+      <c r="AW49" s="73"/>
+      <c r="AX49" s="73"/>
+      <c r="AY49" s="74"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -14981,26 +15453,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="50"/>
-      <c r="AN50" s="50"/>
-      <c r="AO50" s="50"/>
-      <c r="AP50" s="50"/>
-      <c r="AQ50" s="50"/>
-      <c r="AR50" s="50"/>
-      <c r="AS50" s="50"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="50"/>
-      <c r="AV50" s="50"/>
-      <c r="AW50" s="50"/>
-      <c r="AX50" s="50"/>
-      <c r="AY50" s="51"/>
+      <c r="AF50" s="69"/>
+      <c r="AG50" s="70"/>
+      <c r="AH50" s="70"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="70"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="75"/>
+      <c r="AM50" s="76"/>
+      <c r="AN50" s="76"/>
+      <c r="AO50" s="76"/>
+      <c r="AP50" s="76"/>
+      <c r="AQ50" s="76"/>
+      <c r="AR50" s="76"/>
+      <c r="AS50" s="76"/>
+      <c r="AT50" s="76"/>
+      <c r="AU50" s="76"/>
+      <c r="AV50" s="76"/>
+      <c r="AW50" s="76"/>
+      <c r="AX50" s="76"/>
+      <c r="AY50" s="77"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -15113,17 +15585,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15142,2593 +15614,2787 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36:T36"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="16"/>
+    <col min="1" max="5" width="2.6640625" style="16"/>
+    <col min="6" max="6" width="3.109375" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="82"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="78"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="85"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="68" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="68" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="68" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="70"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="90"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="71">
+      <c r="A5" s="91">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72">
+      <c r="B5" s="91"/>
+      <c r="C5" s="92">
         <v>42887</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
-        <v>27</v>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91" t="s">
+        <v>25</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71" t="s">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71" t="s">
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="66">
+      <c r="A6" s="78">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="66">
+      <c r="A7" s="78">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="66">
+      <c r="A8" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="78"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="66">
+      <c r="A9" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="66">
+      <c r="A10" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="66">
+      <c r="A11" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
     </row>
     <row r="12" spans="1:52" ht="12">
-      <c r="A12" s="66">
+      <c r="A12" s="78">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="78"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="66">
+      <c r="A13" s="78">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="78"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="66">
+      <c r="A14" s="78">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="78"/>
+      <c r="AZ14" s="78"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="66">
+      <c r="A15" s="78">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="66">
+      <c r="A16" s="78">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="78"/>
+      <c r="AZ16" s="78"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="66">
+      <c r="A17" s="78">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="78"/>
+      <c r="AZ17" s="78"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="66">
+      <c r="A18" s="78">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="78"/>
+      <c r="AZ18" s="78"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="66">
+      <c r="A19" s="78">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
     </row>
     <row r="20" spans="1:52" ht="12">
-      <c r="A20" s="66">
+      <c r="A20" s="78">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="78"/>
+      <c r="AZ20" s="78"/>
     </row>
     <row r="21" spans="1:52" ht="12">
-      <c r="A21" s="66">
+      <c r="A21" s="78">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="78"/>
+      <c r="AZ21" s="78"/>
     </row>
     <row r="22" spans="1:52" ht="12">
-      <c r="A22" s="66">
+      <c r="A22" s="78">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="78"/>
+      <c r="AZ22" s="78"/>
     </row>
     <row r="23" spans="1:52" ht="12">
-      <c r="A23" s="66">
+      <c r="A23" s="78">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="78"/>
+      <c r="AY23" s="78"/>
+      <c r="AZ23" s="78"/>
     </row>
     <row r="24" spans="1:52" ht="12">
-      <c r="A24" s="66">
+      <c r="A24" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="78"/>
+      <c r="AZ24" s="78"/>
     </row>
     <row r="25" spans="1:52" ht="12">
-      <c r="A25" s="66">
+      <c r="A25" s="78">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="66"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="78"/>
+      <c r="AZ25" s="78"/>
     </row>
     <row r="26" spans="1:52" ht="12">
-      <c r="A26" s="66">
+      <c r="A26" s="78">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
-      <c r="AZ26" s="66"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
+      <c r="AZ26" s="78"/>
     </row>
     <row r="27" spans="1:52" ht="12">
-      <c r="A27" s="66">
+      <c r="A27" s="78">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
-      <c r="AZ27" s="66"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="78"/>
     </row>
     <row r="28" spans="1:52" ht="12">
-      <c r="A28" s="66">
+      <c r="A28" s="78">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
-      <c r="AZ28" s="66"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
     </row>
     <row r="29" spans="1:52" ht="12">
-      <c r="A29" s="66">
+      <c r="A29" s="78">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="66"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="78"/>
+      <c r="AZ29" s="78"/>
     </row>
     <row r="30" spans="1:52" ht="12">
-      <c r="A30" s="66">
+      <c r="A30" s="78">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="66"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="78"/>
     </row>
     <row r="31" spans="1:52" ht="12">
-      <c r="A31" s="66">
+      <c r="A31" s="78">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="66"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="78"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="78"/>
+      <c r="AY31" s="78"/>
+      <c r="AZ31" s="78"/>
     </row>
     <row r="32" spans="1:52" ht="12">
-      <c r="A32" s="66">
+      <c r="A32" s="78">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="66"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="78"/>
+      <c r="AY32" s="78"/>
+      <c r="AZ32" s="78"/>
     </row>
     <row r="33" spans="1:52" ht="12">
-      <c r="A33" s="66">
+      <c r="A33" s="78">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="78"/>
+      <c r="AZ33" s="78"/>
     </row>
     <row r="34" spans="1:52" ht="12">
-      <c r="A34" s="66">
+      <c r="A34" s="78">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="66"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="78"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="78"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="78"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="78"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="78"/>
+      <c r="AY34" s="78"/>
+      <c r="AZ34" s="78"/>
     </row>
     <row r="35" spans="1:52" ht="12">
-      <c r="A35" s="66">
+      <c r="A35" s="78">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="66"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="78"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="78"/>
+      <c r="AH35" s="78"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="78"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="78"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="78"/>
+      <c r="AO35" s="78"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="78"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="78"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="78"/>
     </row>
     <row r="36" spans="1:52" ht="12">
-      <c r="A36" s="66">
+      <c r="A36" s="78">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="66"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="78"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="78"/>
+      <c r="AJ36" s="78"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AN36" s="78"/>
+      <c r="AO36" s="78"/>
+      <c r="AP36" s="78"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="78"/>
+      <c r="AS36" s="78"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="78"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
+      <c r="AX36" s="78"/>
+      <c r="AY36" s="78"/>
+      <c r="AZ36" s="78"/>
     </row>
     <row r="37" spans="1:52" ht="12">
-      <c r="A37" s="66">
+      <c r="A37" s="78">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="78"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="78"/>
+      <c r="AG37" s="78"/>
+      <c r="AH37" s="78"/>
+      <c r="AI37" s="78"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="78"/>
+      <c r="AL37" s="78"/>
+      <c r="AM37" s="78"/>
+      <c r="AN37" s="78"/>
+      <c r="AO37" s="78"/>
+      <c r="AP37" s="78"/>
+      <c r="AQ37" s="78"/>
+      <c r="AR37" s="78"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="78"/>
+      <c r="AU37" s="78"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="78"/>
+      <c r="AX37" s="78"/>
+      <c r="AY37" s="78"/>
+      <c r="AZ37" s="78"/>
     </row>
     <row r="38" spans="1:52" ht="12">
-      <c r="A38" s="66">
+      <c r="A38" s="78">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="66"/>
-      <c r="AR38" s="66"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="66"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="66"/>
-      <c r="AW38" s="66"/>
-      <c r="AX38" s="66"/>
-      <c r="AY38" s="66"/>
-      <c r="AZ38" s="66"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="78"/>
+      <c r="AD38" s="78"/>
+      <c r="AE38" s="78"/>
+      <c r="AF38" s="78"/>
+      <c r="AG38" s="78"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="78"/>
+      <c r="AJ38" s="78"/>
+      <c r="AK38" s="78"/>
+      <c r="AL38" s="78"/>
+      <c r="AM38" s="78"/>
+      <c r="AN38" s="78"/>
+      <c r="AO38" s="78"/>
+      <c r="AP38" s="78"/>
+      <c r="AQ38" s="78"/>
+      <c r="AR38" s="78"/>
+      <c r="AS38" s="78"/>
+      <c r="AT38" s="78"/>
+      <c r="AU38" s="78"/>
+      <c r="AV38" s="78"/>
+      <c r="AW38" s="78"/>
+      <c r="AX38" s="78"/>
+      <c r="AY38" s="78"/>
+      <c r="AZ38" s="78"/>
     </row>
     <row r="39" spans="1:52" ht="12">
-      <c r="A39" s="66">
+      <c r="A39" s="78">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="66"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="78"/>
+      <c r="AC39" s="78"/>
+      <c r="AD39" s="78"/>
+      <c r="AE39" s="78"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="78"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="78"/>
+      <c r="AJ39" s="78"/>
+      <c r="AK39" s="78"/>
+      <c r="AL39" s="78"/>
+      <c r="AM39" s="78"/>
+      <c r="AN39" s="78"/>
+      <c r="AO39" s="78"/>
+      <c r="AP39" s="78"/>
+      <c r="AQ39" s="78"/>
+      <c r="AR39" s="78"/>
+      <c r="AS39" s="78"/>
+      <c r="AT39" s="78"/>
+      <c r="AU39" s="78"/>
+      <c r="AV39" s="78"/>
+      <c r="AW39" s="78"/>
+      <c r="AX39" s="78"/>
+      <c r="AY39" s="78"/>
+      <c r="AZ39" s="78"/>
     </row>
     <row r="40" spans="1:52" ht="12">
-      <c r="A40" s="66">
+      <c r="A40" s="78">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="66"/>
-      <c r="AU40" s="66"/>
-      <c r="AV40" s="66"/>
-      <c r="AW40" s="66"/>
-      <c r="AX40" s="66"/>
-      <c r="AY40" s="66"/>
-      <c r="AZ40" s="66"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
+      <c r="AO40" s="78"/>
+      <c r="AP40" s="78"/>
+      <c r="AQ40" s="78"/>
+      <c r="AR40" s="78"/>
+      <c r="AS40" s="78"/>
+      <c r="AT40" s="78"/>
+      <c r="AU40" s="78"/>
+      <c r="AV40" s="78"/>
+      <c r="AW40" s="78"/>
+      <c r="AX40" s="78"/>
+      <c r="AY40" s="78"/>
+      <c r="AZ40" s="78"/>
     </row>
     <row r="41" spans="1:52" ht="12">
-      <c r="A41" s="66">
+      <c r="A41" s="78">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="66"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="66"/>
-      <c r="AW41" s="66"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="66"/>
-      <c r="AZ41" s="66"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="78"/>
+      <c r="AF41" s="78"/>
+      <c r="AG41" s="78"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="78"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
+      <c r="AO41" s="78"/>
+      <c r="AP41" s="78"/>
+      <c r="AQ41" s="78"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="78"/>
+      <c r="AU41" s="78"/>
+      <c r="AV41" s="78"/>
+      <c r="AW41" s="78"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="78"/>
+      <c r="AZ41" s="78"/>
     </row>
     <row r="42" spans="1:52" ht="12">
-      <c r="A42" s="66">
+      <c r="A42" s="78">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="66"/>
-      <c r="AT42" s="66"/>
-      <c r="AU42" s="66"/>
-      <c r="AV42" s="66"/>
-      <c r="AW42" s="66"/>
-      <c r="AX42" s="66"/>
-      <c r="AY42" s="66"/>
-      <c r="AZ42" s="66"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="78"/>
+      <c r="AC42" s="78"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="78"/>
+      <c r="AF42" s="78"/>
+      <c r="AG42" s="78"/>
+      <c r="AH42" s="78"/>
+      <c r="AI42" s="78"/>
+      <c r="AJ42" s="78"/>
+      <c r="AK42" s="78"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="78"/>
+      <c r="AQ42" s="78"/>
+      <c r="AR42" s="78"/>
+      <c r="AS42" s="78"/>
+      <c r="AT42" s="78"/>
+      <c r="AU42" s="78"/>
+      <c r="AV42" s="78"/>
+      <c r="AW42" s="78"/>
+      <c r="AX42" s="78"/>
+      <c r="AY42" s="78"/>
+      <c r="AZ42" s="78"/>
     </row>
     <row r="43" spans="1:52" ht="12">
-      <c r="A43" s="66">
+      <c r="A43" s="78">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="66"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
-      <c r="AR43" s="66"/>
-      <c r="AS43" s="66"/>
-      <c r="AT43" s="66"/>
-      <c r="AU43" s="66"/>
-      <c r="AV43" s="66"/>
-      <c r="AW43" s="66"/>
-      <c r="AX43" s="66"/>
-      <c r="AY43" s="66"/>
-      <c r="AZ43" s="66"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="78"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="78"/>
+      <c r="AF43" s="78"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="78"/>
+      <c r="AZ43" s="78"/>
     </row>
     <row r="44" spans="1:52" ht="12">
-      <c r="A44" s="66">
+      <c r="A44" s="78">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="66"/>
-      <c r="AZ44" s="66"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="78"/>
+      <c r="AD44" s="78"/>
+      <c r="AE44" s="78"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
+      <c r="AZ44" s="78"/>
     </row>
     <row r="45" spans="1:52" ht="12">
-      <c r="A45" s="66">
+      <c r="A45" s="78">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66"/>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-      <c r="AV45" s="66"/>
-      <c r="AW45" s="66"/>
-      <c r="AX45" s="66"/>
-      <c r="AY45" s="66"/>
-      <c r="AZ45" s="66"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
+      <c r="T45" s="78"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="78"/>
+      <c r="AC45" s="78"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="78"/>
+      <c r="AF45" s="78"/>
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="78"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="78"/>
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="78"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="78"/>
+      <c r="AZ45" s="78"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="79">
+      <c r="A46" s="86">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="79"/>
-      <c r="AO46" s="79"/>
-      <c r="AP46" s="79"/>
-      <c r="AQ46" s="79"/>
-      <c r="AR46" s="79"/>
-      <c r="AS46" s="79"/>
-      <c r="AT46" s="79"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="79"/>
-      <c r="AW46" s="79"/>
-      <c r="AX46" s="79"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="79"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="86"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="86"/>
+      <c r="AE46" s="86"/>
+      <c r="AF46" s="86"/>
+      <c r="AG46" s="86"/>
+      <c r="AH46" s="86"/>
+      <c r="AI46" s="86"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="86"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
+      <c r="AP46" s="86"/>
+      <c r="AQ46" s="86"/>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86"/>
+      <c r="AY46" s="86"/>
+      <c r="AZ46" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -17753,198 +18419,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17959,8 +18433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BO32" sqref="BO32"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -17972,163 +18446,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="99" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="100" t="s">
-        <v>28</v>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="112" t="s">
+        <v>26</v>
       </c>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="99" t="s">
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="101">
-        <v>42887</v>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="113">
+        <v>45553</v>
       </c>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="89" t="s">
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="93">
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="105">
         <v>1</v>
       </c>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="95"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="107"/>
     </row>
     <row r="2" spans="1:55" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B2" s="86"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="102" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103" t="s">
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="102" t="s">
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="104" t="s">
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="98"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="108"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="110"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:55" ht="10.199999999999999" thickBot="1">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
     </row>
     <row r="6" spans="1:55" ht="12">
-      <c r="A6" s="106"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="34"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -18178,13 +18652,13 @@
       <c r="AW6" s="24"/>
       <c r="AX6" s="24"/>
       <c r="AY6" s="24"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="109"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="41"/>
     </row>
     <row r="7" spans="1:55" ht="12">
-      <c r="A7" s="110"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27"/>
@@ -18237,11 +18711,11 @@
       <c r="AY7" s="27"/>
       <c r="AZ7" s="28"/>
       <c r="BA7" s="28"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="112"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="44"/>
     </row>
     <row r="8" spans="1:55" ht="12">
-      <c r="A8" s="110"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="27"/>
@@ -18294,11 +18768,11 @@
       <c r="AY8" s="27"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="28"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="112"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="44"/>
     </row>
     <row r="9" spans="1:55" ht="12">
-      <c r="A9" s="110"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="27"/>
@@ -18351,11 +18825,11 @@
       <c r="AY9" s="27"/>
       <c r="AZ9" s="28"/>
       <c r="BA9" s="28"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="112"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="44"/>
     </row>
     <row r="10" spans="1:55" ht="12">
-      <c r="A10" s="110"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="27"/>
@@ -18408,11 +18882,11 @@
       <c r="AY10" s="27"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="28"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="112"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="44"/>
     </row>
     <row r="11" spans="1:55" ht="12">
-      <c r="A11" s="110"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="27"/>
@@ -18465,11 +18939,11 @@
       <c r="AY11" s="27"/>
       <c r="AZ11" s="28"/>
       <c r="BA11" s="28"/>
-      <c r="BB11" s="111"/>
-      <c r="BC11" s="112"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="44"/>
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1">
-      <c r="A12" s="110"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="27"/>
@@ -18522,11 +18996,11 @@
       <c r="AY12" s="27"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="28"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="112"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="44"/>
     </row>
     <row r="13" spans="1:55" ht="12">
-      <c r="A13" s="110"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="27"/>
@@ -18579,11 +19053,11 @@
       <c r="AY13" s="27"/>
       <c r="AZ13" s="28"/>
       <c r="BA13" s="28"/>
-      <c r="BB13" s="111"/>
-      <c r="BC13" s="112"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="44"/>
     </row>
     <row r="14" spans="1:55" ht="12">
-      <c r="A14" s="110"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="27"/>
@@ -18636,11 +19110,11 @@
       <c r="AY14" s="27"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="28"/>
-      <c r="BB14" s="111"/>
-      <c r="BC14" s="112"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="44"/>
     </row>
     <row r="15" spans="1:55" ht="12">
-      <c r="A15" s="110"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="27"/>
@@ -18693,11 +19167,11 @@
       <c r="AY15" s="27"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="28"/>
-      <c r="BB15" s="111"/>
-      <c r="BC15" s="112"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="44"/>
     </row>
     <row r="16" spans="1:55" ht="12">
-      <c r="A16" s="110"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="27"/>
@@ -18750,11 +19224,11 @@
       <c r="AY16" s="27"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="28"/>
-      <c r="BB16" s="111"/>
-      <c r="BC16" s="112"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="44"/>
     </row>
     <row r="17" spans="1:55" ht="12">
-      <c r="A17" s="110"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="27"/>
@@ -18807,11 +19281,11 @@
       <c r="AY17" s="27"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="28"/>
-      <c r="BB17" s="111"/>
-      <c r="BC17" s="112"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="44"/>
     </row>
     <row r="18" spans="1:55" ht="12">
-      <c r="A18" s="110"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="27"/>
@@ -18864,11 +19338,11 @@
       <c r="AY18" s="27"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="28"/>
-      <c r="BB18" s="111"/>
-      <c r="BC18" s="112"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="44"/>
     </row>
     <row r="19" spans="1:55" ht="12">
-      <c r="A19" s="110"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="27"/>
@@ -18921,11 +19395,11 @@
       <c r="AY19" s="27"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="28"/>
-      <c r="BB19" s="111"/>
-      <c r="BC19" s="112"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="44"/>
     </row>
     <row r="20" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A20" s="110"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="27"/>
@@ -18978,11 +19452,11 @@
       <c r="AY20" s="27"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="28"/>
-      <c r="BB20" s="111"/>
-      <c r="BC20" s="112"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="44"/>
     </row>
     <row r="21" spans="1:55" ht="11.25" customHeight="1">
-      <c r="A21" s="110"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="27"/>
@@ -19035,11 +19509,11 @@
       <c r="AY21" s="27"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="28"/>
-      <c r="BB21" s="111"/>
-      <c r="BC21" s="112"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="44"/>
     </row>
     <row r="22" spans="1:55" ht="11.25" customHeight="1">
-      <c r="A22" s="110"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="27"/>
@@ -19092,11 +19566,11 @@
       <c r="AY22" s="27"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="28"/>
-      <c r="BB22" s="111"/>
-      <c r="BC22" s="112"/>
+      <c r="BB22" s="43"/>
+      <c r="BC22" s="44"/>
     </row>
     <row r="23" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A23" s="110"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="27"/>
@@ -19149,11 +19623,11 @@
       <c r="AY23" s="27"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="28"/>
-      <c r="BB23" s="111"/>
-      <c r="BC23" s="112"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="44"/>
     </row>
     <row r="24" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A24" s="110"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="27"/>
@@ -19206,11 +19680,11 @@
       <c r="AY24" s="27"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="28"/>
-      <c r="BB24" s="111"/>
-      <c r="BC24" s="112"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="44"/>
     </row>
     <row r="25" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A25" s="110"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="27"/>
@@ -19263,11 +19737,11 @@
       <c r="AY25" s="27"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="28"/>
-      <c r="BB25" s="111"/>
-      <c r="BC25" s="112"/>
+      <c r="BB25" s="43"/>
+      <c r="BC25" s="44"/>
     </row>
     <row r="26" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A26" s="110"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="27"/>
@@ -19320,11 +19794,11 @@
       <c r="AY26" s="27"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="28"/>
-      <c r="BB26" s="111"/>
-      <c r="BC26" s="112"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="44"/>
     </row>
     <row r="27" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A27" s="110"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="27"/>
@@ -19377,11 +19851,11 @@
       <c r="AY27" s="27"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
-      <c r="BB27" s="111"/>
-      <c r="BC27" s="112"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="44"/>
     </row>
     <row r="28" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A28" s="110"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="27"/>
@@ -19434,11 +19908,11 @@
       <c r="AY28" s="27"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="28"/>
-      <c r="BB28" s="111"/>
-      <c r="BC28" s="112"/>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="44"/>
     </row>
     <row r="29" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A29" s="110"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="27"/>
@@ -19491,11 +19965,11 @@
       <c r="AY29" s="27"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="28"/>
-      <c r="BB29" s="111"/>
-      <c r="BC29" s="112"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="44"/>
     </row>
     <row r="30" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A30" s="110"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="27"/>
@@ -19548,11 +20022,11 @@
       <c r="AY30" s="27"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="28"/>
-      <c r="BB30" s="111"/>
-      <c r="BC30" s="112"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="44"/>
     </row>
     <row r="31" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A31" s="110"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="27"/>
@@ -19605,11 +20079,11 @@
       <c r="AY31" s="27"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="28"/>
-      <c r="BB31" s="111"/>
-      <c r="BC31" s="112"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="44"/>
     </row>
     <row r="32" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A32" s="110"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="27"/>
@@ -19662,11 +20136,11 @@
       <c r="AY32" s="27"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="28"/>
-      <c r="BB32" s="111"/>
-      <c r="BC32" s="112"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="44"/>
     </row>
     <row r="33" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A33" s="110"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="27"/>
@@ -19719,11 +20193,11 @@
       <c r="AY33" s="27"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="28"/>
-      <c r="BB33" s="111"/>
-      <c r="BC33" s="112"/>
+      <c r="BB33" s="43"/>
+      <c r="BC33" s="44"/>
     </row>
     <row r="34" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A34" s="110"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="27"/>
@@ -19776,11 +20250,11 @@
       <c r="AY34" s="27"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="28"/>
-      <c r="BB34" s="111"/>
-      <c r="BC34" s="112"/>
+      <c r="BB34" s="43"/>
+      <c r="BC34" s="44"/>
     </row>
     <row r="35" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A35" s="110"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="27"/>
@@ -19833,11 +20307,11 @@
       <c r="AY35" s="27"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="28"/>
-      <c r="BB35" s="111"/>
-      <c r="BC35" s="112"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="44"/>
     </row>
     <row r="36" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A36" s="110"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="36"/>
       <c r="C36" s="35"/>
       <c r="D36" s="27"/>
@@ -19890,11 +20364,11 @@
       <c r="AY36" s="27"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="28"/>
-      <c r="BB36" s="111"/>
-      <c r="BC36" s="112"/>
+      <c r="BB36" s="43"/>
+      <c r="BC36" s="44"/>
     </row>
     <row r="37" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A37" s="110"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="36"/>
       <c r="C37" s="35"/>
       <c r="D37" s="27"/>
@@ -19947,11 +20421,11 @@
       <c r="AY37" s="27"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="28"/>
-      <c r="BB37" s="111"/>
-      <c r="BC37" s="112"/>
+      <c r="BB37" s="43"/>
+      <c r="BC37" s="44"/>
     </row>
     <row r="38" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A38" s="110"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="36"/>
       <c r="C38" s="35"/>
       <c r="D38" s="27"/>
@@ -20004,11 +20478,11 @@
       <c r="AY38" s="27"/>
       <c r="AZ38" s="28"/>
       <c r="BA38" s="28"/>
-      <c r="BB38" s="111"/>
-      <c r="BC38" s="112"/>
+      <c r="BB38" s="43"/>
+      <c r="BC38" s="44"/>
     </row>
     <row r="39" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A39" s="110"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="36"/>
       <c r="C39" s="35"/>
       <c r="D39" s="27"/>
@@ -20061,11 +20535,11 @@
       <c r="AY39" s="27"/>
       <c r="AZ39" s="28"/>
       <c r="BA39" s="28"/>
-      <c r="BB39" s="111"/>
-      <c r="BC39" s="112"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="44"/>
     </row>
     <row r="40" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A40" s="110"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="36"/>
       <c r="C40" s="35"/>
       <c r="D40" s="27"/>
@@ -20118,11 +20592,11 @@
       <c r="AY40" s="27"/>
       <c r="AZ40" s="28"/>
       <c r="BA40" s="28"/>
-      <c r="BB40" s="111"/>
-      <c r="BC40" s="112"/>
+      <c r="BB40" s="43"/>
+      <c r="BC40" s="44"/>
     </row>
     <row r="41" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A41" s="110"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="36"/>
       <c r="C41" s="35"/>
       <c r="D41" s="27"/>
@@ -20175,11 +20649,11 @@
       <c r="AY41" s="27"/>
       <c r="AZ41" s="28"/>
       <c r="BA41" s="28"/>
-      <c r="BB41" s="111"/>
-      <c r="BC41" s="112"/>
+      <c r="BB41" s="43"/>
+      <c r="BC41" s="44"/>
     </row>
     <row r="42" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A42" s="110"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="36"/>
       <c r="C42" s="35"/>
       <c r="D42" s="27"/>
@@ -20232,11 +20706,11 @@
       <c r="AY42" s="27"/>
       <c r="AZ42" s="28"/>
       <c r="BA42" s="28"/>
-      <c r="BB42" s="111"/>
-      <c r="BC42" s="112"/>
+      <c r="BB42" s="43"/>
+      <c r="BC42" s="44"/>
     </row>
     <row r="43" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A43" s="110"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="36"/>
       <c r="C43" s="35"/>
       <c r="D43" s="27"/>
@@ -20289,11 +20763,11 @@
       <c r="AY43" s="27"/>
       <c r="AZ43" s="28"/>
       <c r="BA43" s="28"/>
-      <c r="BB43" s="111"/>
-      <c r="BC43" s="112"/>
+      <c r="BB43" s="43"/>
+      <c r="BC43" s="44"/>
     </row>
     <row r="44" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A44" s="110"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="36"/>
       <c r="C44" s="35"/>
       <c r="D44" s="27"/>
@@ -20346,11 +20820,11 @@
       <c r="AY44" s="27"/>
       <c r="AZ44" s="28"/>
       <c r="BA44" s="28"/>
-      <c r="BB44" s="111"/>
-      <c r="BC44" s="112"/>
+      <c r="BB44" s="43"/>
+      <c r="BC44" s="44"/>
     </row>
     <row r="45" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A45" s="110"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="27"/>
@@ -20403,11 +20877,11 @@
       <c r="AY45" s="27"/>
       <c r="AZ45" s="28"/>
       <c r="BA45" s="28"/>
-      <c r="BB45" s="111"/>
-      <c r="BC45" s="112"/>
+      <c r="BB45" s="43"/>
+      <c r="BC45" s="44"/>
     </row>
     <row r="46" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A46" s="110"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="27"/>
@@ -20460,11 +20934,11 @@
       <c r="AY46" s="27"/>
       <c r="AZ46" s="28"/>
       <c r="BA46" s="28"/>
-      <c r="BB46" s="111"/>
-      <c r="BC46" s="112"/>
+      <c r="BB46" s="43"/>
+      <c r="BC46" s="44"/>
     </row>
     <row r="47" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A47" s="110"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="27"/>
@@ -20517,11 +20991,11 @@
       <c r="AY47" s="27"/>
       <c r="AZ47" s="28"/>
       <c r="BA47" s="28"/>
-      <c r="BB47" s="111"/>
-      <c r="BC47" s="112"/>
+      <c r="BB47" s="43"/>
+      <c r="BC47" s="44"/>
     </row>
     <row r="48" spans="1:55" ht="10.5" customHeight="1">
-      <c r="A48" s="110"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="27"/>
@@ -20574,11 +21048,11 @@
       <c r="AY48" s="27"/>
       <c r="AZ48" s="28"/>
       <c r="BA48" s="28"/>
-      <c r="BB48" s="111"/>
-      <c r="BC48" s="112"/>
+      <c r="BB48" s="43"/>
+      <c r="BC48" s="44"/>
     </row>
     <row r="49" spans="1:55" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A49" s="113"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="32"/>
@@ -20629,10 +21103,10 @@
       <c r="AW49" s="32"/>
       <c r="AX49" s="32"/>
       <c r="AY49" s="32"/>
-      <c r="AZ49" s="114"/>
-      <c r="BA49" s="114"/>
-      <c r="BB49" s="115"/>
-      <c r="BC49" s="116"/>
+      <c r="AZ49" s="46"/>
+      <c r="BA49" s="46"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="48"/>
     </row>
     <row r="50" spans="1:55" ht="10.5" customHeight="1"/>
   </sheetData>
@@ -20676,159 +21150,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="100" t="s">
-        <v>30</v>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="112" t="s">
+        <v>27</v>
       </c>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="99" t="s">
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="101">
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="113">
         <v>42887</v>
       </c>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="93">
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="105">
         <v>2</v>
       </c>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="95"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="107"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="102" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="103" t="s">
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="102" t="s">
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="104" t="s">
-        <v>31</v>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="116" t="s">
+        <v>28</v>
       </c>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="98"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="110"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="23"/>
@@ -23209,11 +23683,6 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -23221,6 +23690,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
